--- a/biology/Botanique/Tivoli_(Ljubljana)/Tivoli_(Ljubljana).xlsx
+++ b/biology/Botanique/Tivoli_(Ljubljana)/Tivoli_(Ljubljana).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Tivoli est le principal parc public de la capitale de la Slovénie, Ljubljana. Il est situé dans le district central, entre les districts de Šiška et Rožnik.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Tivoli a été aménagé sur les plans de l'ingénieur Jean Blanchard en 1813 quand Ljubljana était la capitale des provinces illyriennes françaises. Il a été créé par le rattachement de deux parcs existants et des domaines du château de Tivoli et du manoir Cekinov, ce qui le reliait au centre-ville de Ljubljana. 
-L'étang (Tivolski ribnik) a été excavé en 1880, il a ensuite été utilisé pour la navigation de plaisance, le patinage sur glace et la pêche. Une pépinière a été établie dans le parc par la municipalité de la ville en 1894 ; il a été conduit par le jardinier tchèque Vaclav Hejnice, qui a été le premier jardinier professionnel du parc de Tivoli. Dans le même temps, le parc a également été rénové par l'architecte Jože Plečnik, qui ajouta la promenade Jakopič[2].
+L'étang (Tivolski ribnik) a été excavé en 1880, il a ensuite été utilisé pour la navigation de plaisance, le patinage sur glace et la pêche. Une pépinière a été établie dans le parc par la municipalité de la ville en 1894 ; il a été conduit par le jardinier tchèque Vaclav Hejnice, qui a été le premier jardinier professionnel du parc de Tivoli. Dans le même temps, le parc a également été rénové par l'architecte Jože Plečnik, qui ajouta la promenade Jakopič.
 </t>
         </is>
       </c>
